--- a/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T18:04:52+00:00</t>
+    <t>2023-10-05T14:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:03:16+00:00</t>
+    <t>2023-10-05T14:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:18:17+00:00</t>
+    <t>2023-10-05T14:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:35:20+00:00</t>
+    <t>2023-10-05T14:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:43:15+00:00</t>
+    <t>2023-10-05T14:49:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:49:24+00:00</t>
+    <t>2023-10-05T14:58:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T13:50:22+00:00</t>
+    <t>2023-11-29T14:36:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
